--- a/BattingAverageByPosition.xlsx
+++ b/BattingAverageByPosition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/DS202/DS202_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F25DDE08-57DC-684E-929E-B15173E260A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5B52C8-D04A-AE49-B86C-F7BFC7D56E54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{798A4046-6D03-6E4E-87F3-9961A162A7E8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{798A4046-6D03-6E4E-87F3-9961A162A7E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -34,9 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Pos</t>
-  </si>
-  <si>
     <t>1B (First Base)</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Mean Batting AVG</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,15 +464,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0.29299999999999998</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0.28399999999999997</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0.28899999999999998</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>0.28499999999999998</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0.28599999999999998</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0.28399999999999997</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>0.28999999999999998</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>0.28799999999999998</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>0.27500000000000002</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>0.28799999999999998</v>
